--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Updated-Todo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Code</t>
   </si>
@@ -123,6 +124,48 @@
   </si>
   <si>
     <t>Hints on what is going on</t>
+  </si>
+  <si>
+    <t>Change rating to priority</t>
+  </si>
+  <si>
+    <t>Autoclose calendar</t>
+  </si>
+  <si>
+    <t>Show calendar dates on other calendar (i.e. if you've already selected start date, show on end date)</t>
+  </si>
+  <si>
+    <t>Faster load times (Pictures and Mobile)</t>
+  </si>
+  <si>
+    <t>Make the map not glitchy</t>
+  </si>
+  <si>
+    <t>Be able to search along routes after itinerary is made for possible crags / gas stations</t>
+  </si>
+  <si>
+    <t>Move summary of plans so it's not as hard to find</t>
+  </si>
+  <si>
+    <t>Be able to search by location for things to do around there</t>
+  </si>
+  <si>
+    <t>Check if add a meal is glitched</t>
+  </si>
+  <si>
+    <t>Optimize Website (Move JS from top)</t>
+  </si>
+  <si>
+    <t>All of Zoe's Texts</t>
+  </si>
+  <si>
+    <t>Make interface more ascetically pleasing</t>
+  </si>
+  <si>
+    <t>All Josh's Text</t>
+  </si>
+  <si>
+    <t>Redesign entire website based off of Bevy.com</t>
   </si>
 </sst>
 </file>
@@ -478,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,4 +939,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A14" si="0">A3+1</f>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian MacIsaac\Desktop\Website\plannedJourneysGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CanadianRunna\Desktop\Website\plannedJourneysGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Code</t>
   </si>
@@ -165,7 +165,13 @@
     <t>All Josh's Text</t>
   </si>
   <si>
-    <t>Redesign entire website based off of Bevy.com</t>
+    <t>One singular search bar / map / make map be in the center</t>
+  </si>
+  <si>
+    <t>Smaller Footer</t>
+  </si>
+  <si>
+    <t>Redesign entire website based off of Bevy.com (Start from Scratch)</t>
   </si>
 </sst>
 </file>
@@ -525,15 +531,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -550,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -567,7 +573,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -585,7 +591,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>3</v>
@@ -603,7 +609,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -616,7 +622,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -630,7 +636,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -644,7 +650,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -657,7 +663,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -671,7 +677,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -692,7 +698,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -713,7 +719,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -731,7 +737,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -749,7 +755,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -767,7 +773,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -785,7 +791,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -803,7 +809,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -816,7 +822,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -829,7 +835,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -842,7 +848,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -855,7 +861,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -873,7 +879,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -891,7 +897,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -909,7 +915,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -943,35 +949,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <f>A1+1</f>
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>3</v>
@@ -980,106 +986,125 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A14" si="0">A3+1</f>
+        <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CanadianRunna\Desktop\Website\plannedJourneysGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian MacIsaac\Desktop\Website\plannedJourneysGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Code</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Redesign entire website based off of Bevy.com (Start from Scratch)</t>
+  </si>
+  <si>
+    <t>clickMapObject::function(a,b)</t>
+  </si>
+  <si>
+    <t>a.title</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -245,6 +251,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,15 +538,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -556,7 +563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -573,7 +580,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -591,7 +598,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>3</v>
@@ -609,7 +616,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -622,7 +629,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -636,7 +643,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -650,7 +657,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -663,7 +670,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -677,7 +684,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -698,7 +705,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -719,7 +726,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -737,7 +744,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -755,7 +762,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -773,7 +780,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -791,7 +798,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -809,7 +816,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -822,7 +829,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -835,7 +842,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -848,7 +855,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -861,7 +868,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -879,7 +886,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -897,7 +904,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -915,7 +922,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -930,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -949,18 +956,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="91.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -968,7 +975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>A1+1</f>
         <v>2</v>
@@ -977,7 +984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>3</v>
@@ -986,7 +993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>4</v>
@@ -995,7 +1002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1004,7 +1011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1013,7 +1020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1022,7 +1029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1031,7 +1038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1040,7 +1047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1049,7 +1056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1058,7 +1065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1067,7 +1074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1076,7 +1083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1085,7 +1092,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1094,13 +1101,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian MacIsaac\Desktop\Website\plannedJourneysGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CanadianRunna\Desktop\Website\plannedJourneysGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Code</t>
   </si>
@@ -178,13 +178,22 @@
   </si>
   <si>
     <t>a.title</t>
+  </si>
+  <si>
+    <t>Have suggestions on searching based on the location</t>
+  </si>
+  <si>
+    <t>Activity box / popular activities in that area</t>
+  </si>
+  <si>
+    <t>Dates First</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +229,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -252,6 +269,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,15 +556,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -563,7 +581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -580,7 +598,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -598,7 +616,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>3</v>
@@ -616,7 +634,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -629,7 +647,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -643,7 +661,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -657,7 +675,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -670,7 +688,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -684,7 +702,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -705,7 +723,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -726,7 +744,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -744,7 +762,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -762,7 +780,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -780,7 +798,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -798,7 +816,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -816,7 +834,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -829,7 +847,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -842,7 +860,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -855,7 +873,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -868,7 +886,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -886,7 +904,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -904,7 +922,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -922,7 +940,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -937,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -956,26 +974,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <f>A1+1</f>
         <v>2</v>
@@ -984,139 +1002,154 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
     </row>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -977,7 +977,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1007,7 @@
         <f>A2+1</f>
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1129,17 +1129,17 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CanadianRunna\Desktop\Website\plannedJourneysGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian MacIsaac\Desktop\Website\plannedJourneysGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Updated-Todo" sheetId="2" r:id="rId2"/>
+    <sheet name="Update to-do 08-19-2018" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>Code</t>
   </si>
@@ -187,6 +188,45 @@
   </si>
   <si>
     <t>Dates First</t>
+  </si>
+  <si>
+    <t>Think about new title on Plan a Trip Page</t>
+  </si>
+  <si>
+    <t>Think about splitting up locations and activities</t>
+  </si>
+  <si>
+    <t>Pull times from locations in order to correctly generate itinerary based on when they're open</t>
+  </si>
+  <si>
+    <t>Dynamic clicking on itinerary</t>
+  </si>
+  <si>
+    <t>Web spiders to parse information for top search locations to put into database for faster loading</t>
+  </si>
+  <si>
+    <t>Data analytics for pulling information</t>
+  </si>
+  <si>
+    <t>Database of items necessary based on activities in your trip</t>
+  </si>
+  <si>
+    <t>Generate itinerary creates a new page where the plan is full page with a map on the bottom with all of the directions from place to place where you can click on legs on either the map or the itinerary to highlight them, see the travel time, change mode of transportation, etc.</t>
+  </si>
+  <si>
+    <t>Create database that is capable  of saving user names / passwords</t>
+  </si>
+  <si>
+    <t>Create database for itineraries</t>
+  </si>
+  <si>
+    <t>Back end to calculate the itinerary</t>
+  </si>
+  <si>
+    <t>Clickable google maps directions based on the calculated itinerary page</t>
+  </si>
+  <si>
+    <t>Create Back End (Stores Username / Password, Calculates Itinerary, Stores Itinerary, Shows Itinerary, Parses Data &amp; Grabs data from internet etc.)</t>
   </si>
 </sst>
 </file>
@@ -553,18 +593,18 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -581,7 +621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -598,7 +638,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -616,7 +656,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>3</v>
@@ -634,7 +674,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -647,7 +687,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -661,7 +701,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -675,7 +715,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -688,7 +728,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -702,7 +742,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -723,7 +763,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -744,7 +784,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -762,7 +802,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -780,7 +820,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -798,7 +838,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -816,7 +856,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -834,7 +874,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -847,7 +887,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -860,7 +900,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -873,7 +913,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -886,7 +926,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -904,7 +944,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -922,7 +962,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -940,7 +980,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -955,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -976,16 +1016,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="91.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -993,7 +1033,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>A1+1</f>
         <v>2</v>
@@ -1002,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>3</v>
@@ -1011,7 +1051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>4</v>
@@ -1020,7 +1060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1029,7 +1069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1038,7 +1078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1047,7 +1087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1056,7 +1096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1065,7 +1105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1074,7 +1114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1083,7 +1123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1092,7 +1132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1101,7 +1141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1110,7 +1150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1119,7 +1159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1128,29 +1168,115 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Code</t>
   </si>
@@ -227,13 +227,46 @@
   </si>
   <si>
     <t>Create Back End (Stores Username / Password, Calculates Itinerary, Stores Itinerary, Shows Itinerary, Parses Data &amp; Grabs data from internet etc.)</t>
+  </si>
+  <si>
+    <t>Make it able to save websites for ideas to do for each thing on your list</t>
+  </si>
+  <si>
+    <t>Add calendar to the front page for start / end of your vacation</t>
+  </si>
+  <si>
+    <t>Be able to click on reviews in order to see reviews</t>
+  </si>
+  <si>
+    <t>Think of a way to combat fake reviews</t>
+  </si>
+  <si>
+    <t>Take Saved Trips off of the 'My Account' dropdown until they log in</t>
+  </si>
+  <si>
+    <t>Change the P in the logo to V</t>
+  </si>
+  <si>
+    <t>Have Trip Plans auto load into countries / locations once the actual trip is done</t>
+  </si>
+  <si>
+    <t>Be able to open calendar and choose #of days to go</t>
+  </si>
+  <si>
+    <t>Have a filter or warning based on seasons i.e. don't go to Thailand during monsoon season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix About picture &amp; Popular Trips &amp; Planning a Trip / Destinations / Popular Trips </t>
+  </si>
+  <si>
+    <t>Give acknowledgement to Zoe on a page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +310,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -298,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,6 +351,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,82 +1243,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
+      <c r="A6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>Code</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>Give acknowledgement to Zoe on a page</t>
+  </si>
+  <si>
+    <t>Take off Watermarks</t>
+  </si>
+  <si>
+    <t>Allow to build an itinerary like a usual site as opposed to generating an itinerary, just have both options when you want to build a plan i.e. 'I want to build my itinerary day by day' or 'I want to add activities in order to generate an itinerary'</t>
+  </si>
+  <si>
+    <t>Be able to automatically show activities / plans on the calendar as you're building the day-by-day, and be able to click to enlarge</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,116 +1272,131 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
+      <c r="A9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>56</v>
+      <c r="A12" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>73</v>
+      <c r="A23" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>75</v>
       </c>
     </row>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>Code</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>Be able to automatically show activities / plans on the calendar as you're building the day-by-day, and be able to click to enlarge</t>
+  </si>
+  <si>
+    <t>Write Down ideas from Texts</t>
+  </si>
+  <si>
+    <t>Sort Through Ideas</t>
+  </si>
+  <si>
+    <t>Allow to save backend data</t>
+  </si>
+  <si>
+    <t>Work on Back End (Save User Data for Login, Save Trips, Generate Trips Calculations, Etc.)</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,121 +1294,141 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
+      <c r="A12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>57</v>
+      <c r="A16" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>74</v>
+      <c r="A27" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>75</v>
       </c>
     </row>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>Code</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Think about new title on Plan a Trip Page</t>
   </si>
   <si>
-    <t>Think about splitting up locations and activities</t>
-  </si>
-  <si>
     <t>Pull times from locations in order to correctly generate itinerary based on when they're open</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>Generate itinerary creates a new page where the plan is full page with a map on the bottom with all of the directions from place to place where you can click on legs on either the map or the itinerary to highlight them, see the travel time, change mode of transportation, etc.</t>
   </si>
   <si>
-    <t>Create database that is capable  of saving user names / passwords</t>
-  </si>
-  <si>
     <t>Create database for itineraries</t>
   </si>
   <si>
@@ -265,29 +259,41 @@
     <t>Take off Watermarks</t>
   </si>
   <si>
-    <t>Allow to build an itinerary like a usual site as opposed to generating an itinerary, just have both options when you want to build a plan i.e. 'I want to build my itinerary day by day' or 'I want to add activities in order to generate an itinerary'</t>
-  </si>
-  <si>
     <t>Be able to automatically show activities / plans on the calendar as you're building the day-by-day, and be able to click to enlarge</t>
   </si>
   <si>
     <t>Write Down ideas from Texts</t>
   </si>
   <si>
-    <t>Sort Through Ideas</t>
-  </si>
-  <si>
     <t>Allow to save backend data</t>
   </si>
   <si>
-    <t>Work on Back End (Save User Data for Login, Save Trips, Generate Trips Calculations, Etc.)</t>
+    <t>Add a flights option</t>
+  </si>
+  <si>
+    <t>Fix the website defaulting to bottom</t>
+  </si>
+  <si>
+    <t>Instructions page?</t>
+  </si>
+  <si>
+    <t>Allow to choose whether build an itinerary like a usual site as opposed to generating an itinerary, just have both options when you want to build a plan i.e. 'I want to build my itinerary day by day' or 'I want to add activities in order to generate an itinerary'</t>
+  </si>
+  <si>
+    <t>Create the page that either auto-generates itineraries or allows you to switch things around</t>
+  </si>
+  <si>
+    <t>Make a tab for suggestions after you search?</t>
+  </si>
+  <si>
+    <t>Brainstorm really user friendly and easy to navigate itinerary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,14 +337,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -372,7 +370,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,172 +1261,317 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A35" sqref="A35:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A37" si="0">A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian MacIsaac\Desktop\Website\plannedJourneysGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CanadianRunna\Desktop\Website\plannedJourneysGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Updated-Todo" sheetId="2" r:id="rId2"/>
     <sheet name="Update to-do 08-19-2018" sheetId="3" r:id="rId3"/>
+    <sheet name="Atrox" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>Code</t>
   </si>
@@ -287,6 +288,45 @@
   </si>
   <si>
     <t>Brainstorm really user friendly and easy to navigate itinerary</t>
+  </si>
+  <si>
+    <t>Create pre-login nav bar</t>
+  </si>
+  <si>
+    <t>Create post-login navbar</t>
+  </si>
+  <si>
+    <t>Get dropdown working from bootstrap</t>
+  </si>
+  <si>
+    <t>Create Home Page</t>
+  </si>
+  <si>
+    <t>Add a if / requirement for the global footer part</t>
+  </si>
+  <si>
+    <t>Create About Us</t>
+  </si>
+  <si>
+    <t>Create Contact Us</t>
+  </si>
+  <si>
+    <t>Add CSS to login / sign up pages</t>
+  </si>
+  <si>
+    <t>Add Plan a Trip Page</t>
+  </si>
+  <si>
+    <t>Add Destinations Page</t>
+  </si>
+  <si>
+    <t>Add Popular Trips Page</t>
+  </si>
+  <si>
+    <t>Add to Help Page</t>
+  </si>
+  <si>
+    <t>Create Login / Sign up part of Global</t>
   </si>
 </sst>
 </file>
@@ -656,15 +696,15 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -681,7 +721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -698,7 +738,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -716,7 +756,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>3</v>
@@ -734,7 +774,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -747,7 +787,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -761,7 +801,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -775,7 +815,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -788,7 +828,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -802,7 +842,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -823,7 +863,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -844,7 +884,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -862,7 +902,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -880,7 +920,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -898,7 +938,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -916,7 +956,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -934,7 +974,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -947,7 +987,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -960,7 +1000,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -973,7 +1013,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -986,7 +1026,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1004,7 +1044,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1022,7 +1062,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1040,7 +1080,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1055,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -1080,12 +1120,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1093,7 +1133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <f>A1+1</f>
         <v>2</v>
@@ -1102,7 +1142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>3</v>
@@ -1111,7 +1151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>4</v>
@@ -1120,7 +1160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1129,7 +1169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1138,7 +1178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1147,7 +1187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1156,7 +1196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1165,7 +1205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1174,7 +1214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1183,7 +1223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1192,7 +1232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1201,7 +1241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1210,7 +1250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1219,7 +1259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1228,27 +1268,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -1263,13 +1303,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1277,7 +1317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
@@ -1286,16 +1326,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A37" si="0">A2+1</f>
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1304,7 +1344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1313,7 +1353,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1322,7 +1362,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1331,7 +1371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1340,7 +1380,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1349,7 +1389,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1358,7 +1398,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1367,7 +1407,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1376,7 +1416,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1385,7 +1425,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1394,7 +1434,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1403,7 +1443,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>A15+1</f>
         <v>16</v>
@@ -1412,7 +1452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1421,7 +1461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1430,7 +1470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1439,7 +1479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1448,7 +1488,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1457,7 +1497,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1466,7 +1506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1475,7 +1515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1484,7 +1524,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1493,7 +1533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1502,7 +1542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1511,7 +1551,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1520,7 +1560,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1529,7 +1569,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1538,7 +1578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1547,7 +1587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1556,7 +1596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1565,7 +1605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1578,4 +1618,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f t="shared" ref="A3:A20" si="0">A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
   <si>
     <t>Code</t>
   </si>
@@ -290,43 +290,34 @@
     <t>Brainstorm really user friendly and easy to navigate itinerary</t>
   </si>
   <si>
-    <t>Create pre-login nav bar</t>
-  </si>
-  <si>
-    <t>Create post-login navbar</t>
-  </si>
-  <si>
-    <t>Get dropdown working from bootstrap</t>
-  </si>
-  <si>
-    <t>Create Home Page</t>
-  </si>
-  <si>
-    <t>Add a if / requirement for the global footer part</t>
-  </si>
-  <si>
-    <t>Create About Us</t>
-  </si>
-  <si>
-    <t>Create Contact Us</t>
-  </si>
-  <si>
-    <t>Add CSS to login / sign up pages</t>
-  </si>
-  <si>
-    <t>Add Plan a Trip Page</t>
-  </si>
-  <si>
-    <t>Add Destinations Page</t>
-  </si>
-  <si>
-    <t>Add Popular Trips Page</t>
-  </si>
-  <si>
-    <t>Add to Help Page</t>
-  </si>
-  <si>
-    <t>Create Login / Sign up part of Global</t>
+    <t>Color of Title</t>
+  </si>
+  <si>
+    <t>Lower portion of Main Page</t>
+  </si>
+  <si>
+    <t>Contact Us Page</t>
+  </si>
+  <si>
+    <t>Intro to Plan a Trip Page</t>
+  </si>
+  <si>
+    <t>Button to go</t>
+  </si>
+  <si>
+    <t>Trips Page (Not logged in)</t>
+  </si>
+  <si>
+    <t>Modal for Don't know where to go / etc if it's not all the way filled out</t>
+  </si>
+  <si>
+    <t>Finish main page (Just skeleton)</t>
+  </si>
+  <si>
+    <t>Need help planning / or manually / or automatic?</t>
+  </si>
+  <si>
+    <t>Set up database for main page and for Plan a Trip page</t>
   </si>
 </sst>
 </file>
@@ -1622,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1644,16 +1635,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A20" si="0">A2+1</f>
+        <f t="shared" ref="A3:A15" si="0">A2+1</f>
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1662,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1671,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1680,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1698,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1707,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1716,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1724,27 +1715,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1756,36 +1738,6 @@
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CanadianRunna\Desktop\Website\plannedJourneysGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian MacIsaac\Desktop\Website\plannedJourneysGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,15 +687,15 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -712,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -729,7 +729,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -747,7 +747,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>3</v>
@@ -765,7 +765,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -792,7 +792,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -806,7 +806,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -819,7 +819,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -833,7 +833,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -854,7 +854,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -875,7 +875,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -893,7 +893,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -911,7 +911,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -929,7 +929,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -947,7 +947,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -965,7 +965,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -978,7 +978,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -991,7 +991,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1035,7 +1035,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1053,7 +1053,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1071,7 +1071,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -1111,12 +1111,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="91.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>A1+1</f>
         <v>2</v>
@@ -1133,7 +1133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>3</v>
@@ -1142,7 +1142,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>4</v>
@@ -1151,7 +1151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1160,7 +1160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1169,7 +1169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1178,7 +1178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1187,7 +1187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1196,7 +1196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1205,7 +1205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1214,7 +1214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1223,7 +1223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1232,7 +1232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1241,7 +1241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1250,7 +1250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1259,27 +1259,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -1298,9 +1298,9 @@
       <selection activeCell="A35" sqref="A35:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
@@ -1317,7 +1317,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>3</v>
@@ -1326,7 +1326,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1335,7 +1335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1344,7 +1344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1353,7 +1353,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1362,7 +1362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1371,7 +1371,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1380,7 +1380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1389,7 +1389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1398,7 +1398,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1407,7 +1407,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1416,7 +1416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1425,7 +1425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1434,7 +1434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>A15+1</f>
         <v>16</v>
@@ -1443,7 +1443,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1452,7 +1452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1461,7 +1461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1470,7 +1470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1479,7 +1479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1488,7 +1488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1497,7 +1497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1506,7 +1506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1515,7 +1515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1524,7 +1524,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1533,7 +1533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1542,7 +1542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1551,7 +1551,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1560,7 +1560,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1569,7 +1569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1578,7 +1578,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1587,7 +1587,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1596,7 +1596,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1613,32 +1613,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A15" si="0">A2+1</f>
         <v>3</v>
@@ -1647,7 +1650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1656,7 +1659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1665,7 +1668,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1674,7 +1677,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1683,7 +1686,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1692,7 +1695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1701,7 +1704,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1710,37 +1713,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>Code</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Set up database for main page and for Plan a Trip page</t>
+  </si>
+  <si>
+    <t>Look through other tab for things to do AND START DOING DATABASE</t>
   </si>
 </sst>
 </file>
@@ -1613,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,6 +1716,14 @@
         <v>96</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -1646,10 +1646,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A15" si="0">A2+1</f>
+        <f t="shared" ref="A3:A10" si="0">A2+1</f>
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>93</v>
       </c>
     </row>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>Code</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Look through other tab for things to do AND START DOING DATABASE</t>
+  </si>
+  <si>
+    <t>(Fix resizing for cards, add in email newsletter sign up, add in a final set of 3 cards for Destinations)</t>
   </si>
 </sst>
 </file>
@@ -1616,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1630,7 @@
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
@@ -1644,7 +1647,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A10" si="0">A2+1</f>
         <v>3</v>
@@ -1653,7 +1656,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1661,8 +1664,11 @@
       <c r="B4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1671,7 +1677,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1680,7 +1686,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1689,7 +1695,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1698,7 +1704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1707,7 +1713,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1716,7 +1722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian MacIsaac\Desktop\Website\plannedJourneysGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CanadianRunna\Desktop\Website\plannedJourneysGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -693,15 +693,15 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -718,7 +718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -735,7 +735,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -753,7 +753,7 @@
         <v>43218</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>3</v>
@@ -771,7 +771,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -798,7 +798,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -812,7 +812,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -825,7 +825,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -839,7 +839,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -860,7 +860,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -881,7 +881,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -899,7 +899,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -917,7 +917,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -935,7 +935,7 @@
         <v>43219</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -953,7 +953,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -971,7 +971,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1041,7 +1041,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1059,7 +1059,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1077,7 +1077,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -1117,12 +1117,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <f>A1+1</f>
         <v>2</v>
@@ -1139,7 +1139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>3</v>
@@ -1148,7 +1148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>4</v>
@@ -1157,7 +1157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1166,7 +1166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1175,7 +1175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1184,7 +1184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1193,7 +1193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1202,7 +1202,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1211,7 +1211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1220,7 +1220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1229,7 +1229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1238,7 +1238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1247,7 +1247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1256,7 +1256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1265,27 +1265,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -1304,9 +1304,9 @@
       <selection activeCell="A35" sqref="A35:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
@@ -1323,7 +1323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>3</v>
@@ -1332,7 +1332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1341,7 +1341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1350,7 +1350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1359,7 +1359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1368,7 +1368,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1377,7 +1377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1386,7 +1386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1395,7 +1395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1404,7 +1404,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1413,7 +1413,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1422,7 +1422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1431,7 +1431,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1440,7 +1440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>A15+1</f>
         <v>16</v>
@@ -1449,7 +1449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1458,7 +1458,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1467,7 +1467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1476,7 +1476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1485,7 +1485,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1494,7 +1494,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1503,7 +1503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1512,7 +1512,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1521,7 +1521,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1530,7 +1530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1539,7 +1539,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1548,7 +1548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1557,7 +1557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1566,7 +1566,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1575,7 +1575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1584,7 +1584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1593,7 +1593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1602,7 +1602,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1622,15 +1622,15 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
@@ -1647,7 +1647,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A10" si="0">A2+1</f>
         <v>3</v>
@@ -1656,28 +1656,28 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1686,7 +1686,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1695,7 +1695,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1704,7 +1704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1713,7 +1713,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1722,7 +1722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>

--- a/codeToDo.xlsx
+++ b/codeToDo.xlsx
@@ -320,10 +320,10 @@
     <t>Set up database for main page and for Plan a Trip page</t>
   </si>
   <si>
-    <t>Look through other tab for things to do AND START DOING DATABASE</t>
-  </si>
-  <si>
     <t>(Fix resizing for cards, add in email newsletter sign up, add in a final set of 3 cards for Destinations)</t>
+  </si>
+  <si>
+    <t>Look through other tab for things to do AND START DOING DATABASE / PLAN A TRIP PAGE</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,7 +1665,7 @@
         <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1682,7 +1682,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
